--- a/dataanalysis/data/predictions/1600/09041516_1517.xlsx
+++ b/dataanalysis/data/predictions/1600/09041516_1517.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-04</t>
   </si>
   <si>
@@ -284,9 +287,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -644,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,19 +753,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>2.92</v>
@@ -783,7 +786,7 @@
         <v>383789.41</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -824,8 +827,23 @@
       <c r="W2">
         <v>-0.04</v>
       </c>
+      <c r="X2">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>25</v>
+      </c>
+      <c r="Z2">
+        <v>10.91</v>
+      </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -833,22 +851,25 @@
       <c r="AG2">
         <v>4.103569507598877</v>
       </c>
-      <c r="AH2" t="s">
-        <v>90</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-5.1</v>
@@ -866,7 +887,7 @@
         <v>133982.53</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -907,8 +928,23 @@
       <c r="W3">
         <v>1.22</v>
       </c>
+      <c r="X3">
+        <v>7.42</v>
+      </c>
+      <c r="Y3">
+        <v>20.86</v>
+      </c>
+      <c r="Z3">
+        <v>12.09</v>
+      </c>
       <c r="AC3" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -916,22 +952,25 @@
       <c r="AG3">
         <v>-8.068035125732422</v>
       </c>
-      <c r="AH3" t="s">
-        <v>90</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300237</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-4.79</v>
@@ -949,7 +988,7 @@
         <v>72269.8</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -990,8 +1029,23 @@
       <c r="W4">
         <v>0.55</v>
       </c>
+      <c r="X4">
+        <v>0.63</v>
+      </c>
+      <c r="Y4">
+        <v>3.25</v>
+      </c>
+      <c r="Z4">
+        <v>2.2</v>
+      </c>
       <c r="AC4" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -999,22 +1053,25 @@
       <c r="AG4">
         <v>1.85160756111145</v>
       </c>
-      <c r="AH4" t="s">
-        <v>90</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300274</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.96</v>
@@ -1032,7 +1089,7 @@
         <v>1961149.03</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1073,8 +1130,23 @@
       <c r="W5">
         <v>-0.23</v>
       </c>
+      <c r="X5">
+        <v>16.67</v>
+      </c>
+      <c r="Y5">
+        <v>137.66</v>
+      </c>
+      <c r="Z5">
+        <v>18.67</v>
+      </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1082,22 +1154,25 @@
       <c r="AG5">
         <v>9.501571655273438</v>
       </c>
-      <c r="AH5" t="s">
-        <v>90</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300308</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-13.39</v>
@@ -1115,7 +1190,7 @@
         <v>3673180.57</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>38</v>
@@ -1156,8 +1231,23 @@
       <c r="W6">
         <v>-0.48</v>
       </c>
+      <c r="X6">
+        <v>10.26</v>
+      </c>
+      <c r="Y6">
+        <v>418.88</v>
+      </c>
+      <c r="Z6">
+        <v>13.47</v>
+      </c>
       <c r="AC6" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1165,22 +1255,25 @@
       <c r="AG6">
         <v>2.325117349624634</v>
       </c>
-      <c r="AH6" t="s">
-        <v>90</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300328</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.91</v>
@@ -1198,7 +1291,7 @@
         <v>323669.99</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>13</v>
@@ -1239,8 +1332,23 @@
       <c r="W7">
         <v>0.14</v>
       </c>
+      <c r="X7">
+        <v>3.55</v>
+      </c>
+      <c r="Y7">
+        <v>19.62</v>
+      </c>
+      <c r="Z7">
+        <v>5.48</v>
+      </c>
       <c r="AC7" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1248,22 +1356,25 @@
       <c r="AG7">
         <v>7.121895790100098</v>
       </c>
-      <c r="AH7" t="s">
-        <v>90</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300410</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>20.02</v>
@@ -1281,7 +1392,7 @@
         <v>59722.84</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1322,8 +1433,23 @@
       <c r="W8">
         <v>6.01</v>
       </c>
+      <c r="X8">
+        <v>6.2</v>
+      </c>
+      <c r="Y8">
+        <v>11.98</v>
+      </c>
+      <c r="Z8">
+        <v>14.2</v>
+      </c>
       <c r="AC8" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1331,22 +1457,25 @@
       <c r="AG8">
         <v>8.697347640991211</v>
       </c>
-      <c r="AH8" t="s">
-        <v>90</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300450</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.98</v>
@@ -1364,7 +1493,7 @@
         <v>900247.96</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1405,8 +1534,23 @@
       <c r="W9">
         <v>-0.29</v>
       </c>
+      <c r="X9">
+        <v>20.01</v>
+      </c>
+      <c r="Y9">
+        <v>53.8</v>
+      </c>
+      <c r="Z9">
+        <v>20.01</v>
+      </c>
       <c r="AC9" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1414,22 +1558,25 @@
       <c r="AG9">
         <v>8.196316719055176</v>
       </c>
-      <c r="AH9" t="s">
-        <v>90</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300457</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.09</v>
@@ -1447,7 +1594,7 @@
         <v>230850.94</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1488,8 +1635,23 @@
       <c r="W10">
         <v>0.02</v>
       </c>
+      <c r="X10">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>30.5</v>
+      </c>
+      <c r="Z10">
+        <v>9.949999999999999</v>
+      </c>
       <c r="AC10" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1497,22 +1659,25 @@
       <c r="AG10">
         <v>-2.024733066558838</v>
       </c>
-      <c r="AH10" t="s">
-        <v>90</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300465</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-4.01</v>
@@ -1530,7 +1695,7 @@
         <v>178626.19</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1571,8 +1736,23 @@
       <c r="W11">
         <v>-1.55</v>
       </c>
+      <c r="X11">
+        <v>3.93</v>
+      </c>
+      <c r="Y11">
+        <v>25.99</v>
+      </c>
+      <c r="Z11">
+        <v>7.44</v>
+      </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1580,22 +1760,25 @@
       <c r="AG11">
         <v>2.059980392456055</v>
       </c>
-      <c r="AH11" t="s">
-        <v>90</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300469</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-4.65</v>
@@ -1613,7 +1796,7 @@
         <v>159234.42</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1654,8 +1837,23 @@
       <c r="W12">
         <v>-0.13</v>
       </c>
+      <c r="X12">
+        <v>8.94</v>
+      </c>
+      <c r="Y12">
+        <v>70.5</v>
+      </c>
+      <c r="Z12">
+        <v>12.1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1663,22 +1861,25 @@
       <c r="AG12">
         <v>-0.8625245690345764</v>
       </c>
-      <c r="AH12" t="s">
-        <v>90</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300486</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.15</v>
@@ -1696,7 +1897,7 @@
         <v>209848.56</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -1737,8 +1938,23 @@
       <c r="W13">
         <v>-0.03</v>
       </c>
+      <c r="X13">
+        <v>-1.8</v>
+      </c>
+      <c r="Y13">
+        <v>27.45</v>
+      </c>
+      <c r="Z13">
+        <v>3.16</v>
+      </c>
       <c r="AC13" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1746,22 +1962,25 @@
       <c r="AG13">
         <v>-3.254098176956177</v>
       </c>
-      <c r="AH13" t="s">
-        <v>90</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300584</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-4.63</v>
@@ -1779,7 +1998,7 @@
         <v>97488.06</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14">
         <v>18</v>
@@ -1820,8 +2039,23 @@
       <c r="W14">
         <v>-0.64</v>
       </c>
+      <c r="X14">
+        <v>14.64</v>
+      </c>
+      <c r="Y14">
+        <v>73.63</v>
+      </c>
+      <c r="Z14">
+        <v>15.32</v>
+      </c>
       <c r="AC14" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1829,22 +2063,25 @@
       <c r="AG14">
         <v>-1.462200880050659</v>
       </c>
-      <c r="AH14" t="s">
-        <v>90</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300827</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>13.32</v>
@@ -1862,7 +2099,7 @@
         <v>470809.45</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1903,8 +2140,23 @@
       <c r="W15">
         <v>0.97</v>
       </c>
+      <c r="X15">
+        <v>3.93</v>
+      </c>
+      <c r="Y15">
+        <v>37.1</v>
+      </c>
+      <c r="Z15">
+        <v>8.73</v>
+      </c>
       <c r="AC15" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1912,22 +2164,25 @@
       <c r="AG15">
         <v>-0.3301858007907867</v>
       </c>
-      <c r="AH15" t="s">
-        <v>90</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>301008</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.38</v>
@@ -1945,7 +2200,7 @@
         <v>48902.55</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -1986,8 +2241,23 @@
       <c r="W16">
         <v>-0.04</v>
       </c>
+      <c r="X16">
+        <v>1.33</v>
+      </c>
+      <c r="Y16">
+        <v>35.09</v>
+      </c>
+      <c r="Z16">
+        <v>1.33</v>
+      </c>
       <c r="AC16" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -1995,22 +2265,25 @@
       <c r="AG16">
         <v>3.935928821563721</v>
       </c>
-      <c r="AH16" t="s">
-        <v>90</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>301031</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-4.95</v>
@@ -2028,7 +2301,7 @@
         <v>91476.94</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2069,8 +2342,23 @@
       <c r="W17">
         <v>0.68</v>
       </c>
+      <c r="X17">
+        <v>3.2</v>
+      </c>
+      <c r="Y17">
+        <v>112.69</v>
+      </c>
+      <c r="Z17">
+        <v>7.49</v>
+      </c>
       <c r="AC17" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2078,22 +2366,25 @@
       <c r="AG17">
         <v>7.354530811309814</v>
       </c>
-      <c r="AH17" t="s">
-        <v>90</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>301312</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-0.38</v>
@@ -2111,7 +2402,7 @@
         <v>82360.06</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K18">
         <v>19</v>
@@ -2152,8 +2443,23 @@
       <c r="W18">
         <v>-0.22</v>
       </c>
+      <c r="X18">
+        <v>4.58</v>
+      </c>
+      <c r="Y18">
+        <v>63.79</v>
+      </c>
+      <c r="Z18">
+        <v>5.19</v>
+      </c>
       <c r="AC18" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2161,22 +2467,25 @@
       <c r="AG18">
         <v>4.262905597686768</v>
       </c>
-      <c r="AH18" t="s">
-        <v>90</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>301488</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.5</v>
@@ -2194,7 +2503,7 @@
         <v>123707.2</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -2235,8 +2544,23 @@
       <c r="W19">
         <v>-0.27</v>
       </c>
+      <c r="X19">
+        <v>16.86</v>
+      </c>
+      <c r="Y19">
+        <v>151</v>
+      </c>
+      <c r="Z19">
+        <v>19.27</v>
+      </c>
       <c r="AC19" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2244,22 +2568,25 @@
       <c r="AG19">
         <v>2.801355123519897</v>
       </c>
-      <c r="AH19" t="s">
-        <v>90</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>688006</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>9.890000000000001</v>
@@ -2277,7 +2604,7 @@
         <v>154896.87</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2318,8 +2645,23 @@
       <c r="W20">
         <v>0.33</v>
       </c>
+      <c r="X20">
+        <v>19.99</v>
+      </c>
+      <c r="Y20">
+        <v>38.54</v>
+      </c>
+      <c r="Z20">
+        <v>19.99</v>
+      </c>
       <c r="AC20" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2327,22 +2669,25 @@
       <c r="AG20">
         <v>-13.5999870300293</v>
       </c>
-      <c r="AH20" t="s">
-        <v>90</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>688062</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-9.59</v>
@@ -2360,7 +2705,7 @@
         <v>160255.73</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2401,8 +2746,23 @@
       <c r="W21">
         <v>-1.5</v>
       </c>
+      <c r="X21">
+        <v>7.38</v>
+      </c>
+      <c r="Y21">
+        <v>58.67</v>
+      </c>
+      <c r="Z21">
+        <v>8.210000000000001</v>
+      </c>
       <c r="AC21" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2410,22 +2770,25 @@
       <c r="AG21">
         <v>7.305241107940674</v>
       </c>
-      <c r="AH21" t="s">
-        <v>90</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>688108</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.57</v>
@@ -2443,7 +2806,7 @@
         <v>302116.94</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2484,8 +2847,23 @@
       <c r="W22">
         <v>-0.34</v>
       </c>
+      <c r="X22">
+        <v>-7.25</v>
+      </c>
+      <c r="Y22">
+        <v>36.72</v>
+      </c>
+      <c r="Z22">
+        <v>-0.35</v>
+      </c>
       <c r="AC22" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2493,22 +2871,25 @@
       <c r="AG22">
         <v>-4.073789119720459</v>
       </c>
-      <c r="AH22" t="s">
-        <v>90</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>688141</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.71</v>
@@ -2526,7 +2907,7 @@
         <v>168627.75</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2567,8 +2948,23 @@
       <c r="W23">
         <v>0.18</v>
       </c>
+      <c r="X23">
+        <v>12.29</v>
+      </c>
+      <c r="Y23">
+        <v>47.8</v>
+      </c>
+      <c r="Z23">
+        <v>13.38</v>
+      </c>
       <c r="AC23" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2576,22 +2972,25 @@
       <c r="AG23">
         <v>8.334515571594238</v>
       </c>
-      <c r="AH23" t="s">
-        <v>90</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>688195</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-8.02</v>
@@ -2609,7 +3008,7 @@
         <v>152766.73</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24">
         <v>14</v>
@@ -2650,8 +3049,23 @@
       <c r="W24">
         <v>-0.1</v>
       </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+      <c r="Y24">
+        <v>92.77</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
       <c r="AC24" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2659,22 +3073,25 @@
       <c r="AG24">
         <v>11.36318492889404</v>
       </c>
-      <c r="AH24" t="s">
-        <v>90</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>688201</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>6.41</v>
@@ -2692,7 +3109,7 @@
         <v>60470.41</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2733,8 +3150,23 @@
       <c r="W25">
         <v>0.37</v>
       </c>
+      <c r="X25">
+        <v>-1.92</v>
+      </c>
+      <c r="Y25">
+        <v>15.64</v>
+      </c>
+      <c r="Z25">
+        <v>0.26</v>
+      </c>
       <c r="AC25" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2742,22 +3174,25 @@
       <c r="AG25">
         <v>6.5232834815979</v>
       </c>
-      <c r="AH25" t="s">
-        <v>90</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>688222</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-3.82</v>
@@ -2775,7 +3210,7 @@
         <v>139271.08</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2816,8 +3251,23 @@
       <c r="W26">
         <v>0.01</v>
       </c>
+      <c r="X26">
+        <v>-2.31</v>
+      </c>
+      <c r="Y26">
+        <v>27.7</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
       <c r="AC26" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2825,22 +3275,25 @@
       <c r="AG26">
         <v>2.901532649993896</v>
       </c>
-      <c r="AH26" t="s">
-        <v>90</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>688261</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-7.07</v>
@@ -2858,7 +3311,7 @@
         <v>91387.99000000001</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2899,8 +3352,23 @@
       <c r="W27">
         <v>-0.3</v>
       </c>
+      <c r="X27">
+        <v>3.67</v>
+      </c>
+      <c r="Y27">
+        <v>89.5</v>
+      </c>
+      <c r="Z27">
+        <v>4.48</v>
+      </c>
       <c r="AC27" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2908,22 +3376,25 @@
       <c r="AG27">
         <v>-28.47063827514648</v>
       </c>
-      <c r="AH27" t="s">
-        <v>90</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688299</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.18</v>
@@ -2941,7 +3412,7 @@
         <v>122211.81</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -2982,8 +3453,23 @@
       <c r="W28">
         <v>-0.23</v>
       </c>
+      <c r="X28">
+        <v>7.66</v>
+      </c>
+      <c r="Y28">
+        <v>25.3</v>
+      </c>
+      <c r="Z28">
+        <v>8.300000000000001</v>
+      </c>
       <c r="AC28" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -2991,22 +3477,25 @@
       <c r="AG28">
         <v>2.502028226852417</v>
       </c>
-      <c r="AH28" t="s">
-        <v>90</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688411</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>5.89</v>
@@ -3024,7 +3513,7 @@
         <v>110281.63</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3065,8 +3554,23 @@
       <c r="W29">
         <v>-0.86</v>
       </c>
+      <c r="X29">
+        <v>14.92</v>
+      </c>
+      <c r="Y29">
+        <v>185</v>
+      </c>
+      <c r="Z29">
+        <v>17.98</v>
+      </c>
       <c r="AC29" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3074,22 +3578,25 @@
       <c r="AG29">
         <v>1.671802878379822</v>
       </c>
-      <c r="AH29" t="s">
-        <v>90</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688498</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-8.73</v>
@@ -3107,7 +3614,7 @@
         <v>303352.47</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30">
         <v>18</v>
@@ -3148,8 +3655,23 @@
       <c r="W30">
         <v>0.09</v>
       </c>
+      <c r="X30">
+        <v>2.83</v>
+      </c>
+      <c r="Y30">
+        <v>390</v>
+      </c>
+      <c r="Z30">
+        <v>7.42</v>
+      </c>
       <c r="AC30" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3157,22 +3679,25 @@
       <c r="AG30">
         <v>10.84488677978516</v>
       </c>
-      <c r="AH30" t="s">
-        <v>90</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688709</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-10.02</v>
@@ -3190,7 +3715,7 @@
         <v>157940.02</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -3231,8 +3756,23 @@
       <c r="W31">
         <v>-0.95</v>
       </c>
+      <c r="X31">
+        <v>1.8</v>
+      </c>
+      <c r="Y31">
+        <v>53.64</v>
+      </c>
+      <c r="Z31">
+        <v>4.77</v>
+      </c>
       <c r="AC31" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3240,22 +3780,25 @@
       <c r="AG31">
         <v>2.330799341201782</v>
       </c>
-      <c r="AH31" t="s">
-        <v>90</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688717</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-1.86</v>
@@ -3273,7 +3816,7 @@
         <v>94889.86</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3314,8 +3857,23 @@
       <c r="W32">
         <v>0.93</v>
       </c>
+      <c r="X32">
+        <v>8.18</v>
+      </c>
+      <c r="Y32">
+        <v>84</v>
+      </c>
+      <c r="Z32">
+        <v>9.09</v>
+      </c>
       <c r="AC32" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3323,8 +3881,11 @@
       <c r="AG32">
         <v>19.44929885864258</v>
       </c>
-      <c r="AH32" t="s">
-        <v>90</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
